--- a/medicine/Enfance/José_Moselli/José_Moselli.xlsx
+++ b/medicine/Enfance/José_Moselli/José_Moselli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Moselli</t>
+          <t>José_Moselli</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">José Moselli, nom de plume de Joseph Théophile Maurice Moselli, né le 28 août 1882 à Paris dans le 9e arrondissement[1] et mort le 21 juillet 1941 au Cannet, est un auteur français de romans policiers et de science-fiction, d'histoires de littérature d'enfance et de jeunesse et  de récits d'aventures populaires. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">José Moselli, nom de plume de Joseph Théophile Maurice Moselli, né le 28 août 1882 à Paris dans le 9e arrondissement et mort le 21 juillet 1941 au Cannet, est un auteur français de romans policiers et de science-fiction, d'histoires de littérature d'enfance et de jeunesse et  de récits d'aventures populaires. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Moselli</t>
+          <t>José_Moselli</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>« À treize ans, le jeune Moselli s'enfuit de chez lui et s'engage comme mousse »[2]. Après plusieurs voyages sur les mers et océans, il devient officier de la marine marchande et, en 1903, capitaine de navire. Il démissionne en 1909 et s'installe à Paris où il amorce une carrière littéraire.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>« À treize ans, le jeune Moselli s'enfuit de chez lui et s'engage comme mousse ». Après plusieurs voyages sur les mers et océans, il devient officier de la marine marchande et, en 1903, capitaine de navire. Il démissionne en 1909 et s'installe à Paris où il amorce une carrière littéraire.
 Surnommé l'écrivain sans livre, José Moselli est l'un des grands feuilletonistes populaires du début du XXe siècle. Auteur prolifique, il publie un grand nombre de romans, nouvelles et chroniques, principalement dans Sciences et voyages, ou encore dans L'Épatant, L'Intrépide, Le Petit Illustré, Cri-Cri de la maison d'éditions Offenstadt où il en est reconnu comme l'auteur numéro 1 d'après George Fronval.
-Ses nombreux romans-feuilletons paraissaient en revues (comme la Collection d'aventures) et peu ont été édités en livres d'où le surnom évoqué plus haut. Il est connu pour quelques textes de science-fiction, comme La Cité du gouffre ou Le Messager de la planète, et surtout La Fin d'Illa (1925) « son chef-d'œuvre »[3]. Dans le genre policier, il donne plusieurs titres, dont Triplix l'insaisissable (1924), Les Gangsters de l'air (1939) et, surtout, La Momie rouge (1925), un récit de chambre close.
+Ses nombreux romans-feuilletons paraissaient en revues (comme la Collection d'aventures) et peu ont été édités en livres d'où le surnom évoqué plus haut. Il est connu pour quelques textes de science-fiction, comme La Cité du gouffre ou Le Messager de la planète, et surtout La Fin d'Illa (1925) « son chef-d'œuvre ». Dans le genre policier, il donne plusieurs titres, dont Triplix l'insaisissable (1924), Les Gangsters de l'air (1939) et, surtout, La Momie rouge (1925), un récit de chambre close.
 Comme beaucoup de ses confrères de l'époque, il utilise de nombreux pseudonymes : Jacques Mahan, Pierre Agay, J. Fauconnier, Nord-55-Est, Ledam pour les plus fréquents ; Jack Duridan, Jules Dupont, Pierre de Villebrune, Jim Houch, Jacques North et d'après George Fronval Captain Harry et Explorateur.
 Jean Leclerq (dans « En souvenir de José Moselli », Désiré, 2e série, no 6, janvier 1975) et George Fronval périodisent comme suit la vie de José Moselli :
 avant la Grande Guerre : l'enfant et le marin marchand ;
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Moselli</t>
+          <t>José_Moselli</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Œuvres marquantes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Guerre des Océans publiée dans la revue Sciences et voyages du mois de décembre 1928 (no 485) au mois de septembre 1929 (no 524) puis en livre aux éditions Marabout dans la collection Le Rayon populaire (Verviers, Belgique 1975)
 La Fin d'Illa (1925) réédité dans Fiction (no 98) dès 1962 à l'initiative de Jacques Bergier puis successivement par les éditions Rencontres (dans le cadre d'une anthologie préfacée par Jacques Bergier) en 1970 et par les éditions Marabout, collection Science-Fiction no 421 (présentation de Jacques Van Herp) en 1972</t>
